--- a/04_python/python-build-in-functions.xlsx
+++ b/04_python/python-build-in-functions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数学运算" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>abs(x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,6 +632,14 @@
   </si>
   <si>
     <t>实在是没有看懂，只是看到了矩阵的变幻方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ord(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回x的ascii码值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1340,8 +1348,12 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3"/>
@@ -1832,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
